--- a/results.xlsx
+++ b/results.xlsx
@@ -434,13 +434,13 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>תחייבות</t>
+          <t>התחייבות</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -448,12 +448,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>858.7002677545532</v>
+        <v>10495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -461,12 +461,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2680.185684203606</v>
+        <v>32757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,12 +487,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2395.832257847934</v>
+        <v>29135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>741.6542187499989</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -552,12 +552,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>663.6719006363523</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -565,12 +565,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>790.3945646377138</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -578,12 +578,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10505.61179605923</v>
+        <v>127329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -591,12 +591,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>393.0484071729854</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -604,12 +604,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11202.88691526671</v>
+        <v>135780</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -630,12 +630,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3122.546428198375</v>
+        <v>38163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -643,12 +643,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3372.835633161072</v>
+        <v>40926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -656,12 +656,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6287.204077328129</v>
+        <v>76331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -669,12 +669,12 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5848.579974693598</v>
+        <v>71167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -682,12 +682,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1359.560883827867</v>
+        <v>16636</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -708,12 +708,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1912.559687271505</v>
+        <v>23375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -721,12 +721,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12414.40583115765</v>
+        <v>151117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -747,12 +747,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2061.893283530415</v>
+        <v>25231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -760,12 +760,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2190.45062819462</v>
+        <v>26658</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -773,12 +773,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1344.800090503839</v>
+        <v>16456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -786,12 +786,12 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1262.010887730529</v>
+        <v>15427</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -799,12 +799,12 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6597.031722497589</v>
+        <v>80318</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -825,12 +825,12 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1505.097407107974</v>
+        <v>18377</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -838,12 +838,12 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>585.3199558621966</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -851,12 +851,12 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11836.47632132466</v>
+        <v>143330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -864,12 +864,12 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4616.829471089501</v>
+        <v>55913</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -877,12 +877,12 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15509.49611814598</v>
+        <v>187890</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -903,12 +903,12 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2090.602829540937</v>
+        <v>25432</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -916,12 +916,12 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6654.443271083212</v>
+        <v>80807</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -929,12 +929,12 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1471.582231984309</v>
+        <v>17991</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -942,12 +942,12 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1183.965520691884</v>
+        <v>14470</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -968,12 +968,12 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3651.641303589373</v>
+        <v>44359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -981,12 +981,12 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>762.4709538055181</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -994,12 +994,12 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>493</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1007,12 +1007,12 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1303.865139368451</v>
+        <v>15940</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1020,12 +1020,12 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>816.8657474176114</v>
+        <v>9998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1033,12 +1033,12 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4356.344011299603</v>
+        <v>52919</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1046,12 +1046,12 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>839.1843525783133</v>
+        <v>10256</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1059,12 +1059,12 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6239.477308808953</v>
+        <v>75659</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1085,12 +1085,12 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>720.375</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1358,12 +1358,12 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1456.212131493356</v>
+        <v>17819</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1371,12 +1371,12 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>14875.20254309273</v>
+        <v>180288</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1384,12 +1384,12 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4693.86985156935</v>
+        <v>57011</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1397,12 +1397,12 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7117.784416869869</v>
+        <v>86268</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1410,12 +1410,12 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6610.168130086829</v>
+        <v>80116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1423,12 +1423,12 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8871.122229550883</v>
+        <v>107451</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1436,12 +1436,12 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>436.05</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1462,12 +1462,12 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>695.8889831915151</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1475,12 +1475,12 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>650.25</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1488,12 +1488,12 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5523.737200043666</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1501,12 +1501,12 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>624.75</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1527,12 +1527,12 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>799</v>
+        <v>9794</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1540,12 +1540,12 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>904.8379949766054</v>
+        <v>11061</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1553,12 +1553,12 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1917.243506913803</v>
+        <v>23432</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1566,12 +1566,12 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2680.185684203606</v>
+        <v>32757</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1579,12 +1579,12 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>748</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1605,12 +1605,12 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3150.203875342271</v>
+        <v>38463</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1618,12 +1618,12 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5252.150217646145</v>
+        <v>63701</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1631,12 +1631,12 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>263.60625</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1644,12 +1644,12 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>519.7321454485774</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1657,12 +1657,12 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5382.574605481628</v>
+        <v>65174</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1670,12 +1670,12 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>476</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1683,12 +1683,12 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1340.23063429477</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1017.200686541672</v>
+        <v>12447</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1709,12 +1709,12 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10935.07854072555</v>
+        <v>132421</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1722,12 +1722,12 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2621.815204012134</v>
+        <v>31955</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1735,12 +1735,12 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1374.59552235361</v>
+        <v>16820</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5894.416684503373</v>
+        <v>71842</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1761,12 +1761,12 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1589.376072721362</v>
+        <v>19449</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1774,12 +1774,12 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2035.045714734446</v>
+        <v>24902</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1787,12 +1787,12 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>987.9905316916573</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1800,12 +1800,12 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1189.347297661424</v>
+        <v>14554</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1813,12 +1813,12 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1675.288292868463</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1826,12 +1826,12 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1890.068843236214</v>
+        <v>23128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1839,12 +1839,12 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1912.559687271505</v>
+        <v>23375</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1852,12 +1852,12 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1499.168241566906</v>
+        <v>18345</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1865,12 +1865,12 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1417.55163242716</v>
+        <v>17346</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -1878,12 +1878,12 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3605.680046410897</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -1891,12 +1891,12 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8734.463652926072</v>
+        <v>105801</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1904,12 +1904,12 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1847.112733162664</v>
+        <v>22602</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1930,12 +1930,12 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1058.818524767819</v>
+        <v>12928</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1943,12 +1943,12 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1340.23063429477</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1956,12 +1956,12 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2648.211494339096</v>
+        <v>32252</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1969,12 +1969,12 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1792.63547309108</v>
+        <v>21832</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2013.703437466084</v>
+        <v>24543</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1995,12 +1995,12 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1522.241383746708</v>
+        <v>18605</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2008,12 +2008,12 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>656.625</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2021,12 +2021,12 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3071.29853781339</v>
+        <v>37405</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2034,12 +2034,12 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>318.75</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2047,12 +2047,12 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>520.4244046997293</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2060,12 +2060,12 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>520.4244046997293</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2073,12 +2073,12 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1052.096981287939</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2112,12 +2112,12 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1202.396550043359</v>
+        <v>14629</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2125,12 +2125,12 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2001.470490241425</v>
+        <v>24325</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2138,12 +2138,12 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1639.336874804147</v>
+        <v>20036</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2151,12 +2151,12 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2579.329792880339</v>
+        <v>31358</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2164,12 +2164,12 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1327.082231984309</v>
+        <v>16219</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2177,12 +2177,12 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1904.886221761315</v>
+        <v>23157</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2190,12 +2190,12 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4799.313042368753</v>
+        <v>58352</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2203,12 +2203,12 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2264.460788307892</v>
+        <v>27535</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2216,12 +2216,12 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2264.810181246875</v>
+        <v>27542</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2229,12 +2229,12 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1359.560883827867</v>
+        <v>16636</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2242,12 +2242,12 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1142.953256812554</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2255,12 +2255,12 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1551.93432012082</v>
+        <v>18909</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2281,12 +2281,12 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1921.049310143561</v>
+        <v>23401</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2294,12 +2294,12 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1629.668611900982</v>
+        <v>19847</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2307,12 +2307,12 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>959.0125</v>
+        <v>11755</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2333,12 +2333,12 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2848.441546444896</v>
+        <v>34722</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2346,12 +2346,12 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3165.317880807677</v>
+        <v>38550</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2359,12 +2359,12 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2027.039221820165</v>
+        <v>24706</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1386.703435408003</v>
+        <v>16905</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1733.651966030404</v>
+        <v>21130</v>
       </c>
     </row>
   </sheetData>
